--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="16" activeTab="18"/>
+    <workbookView activeTab="18" firstSheet="16" windowHeight="4455" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctrAsRandPApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctrAsRandPMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctrAsRandPJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctrAsRandPJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctrAsRandPAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctrAsRandPSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctrAsRandPApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctrAsRandPMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctrAsRandPJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctrAsRandPJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctrAsRandPAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctrAsRandPSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="82">
   <si>
     <t>TC</t>
   </si>
@@ -275,12 +280,16 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,55 +349,58 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -399,10 +411,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -437,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,9 +482,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +534,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,7 +606,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -569,13 +615,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -585,7 +631,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -594,7 +640,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -603,7 +649,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -613,12 +659,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -649,7 +695,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -668,7 +714,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -680,22 +726,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -723,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -737,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -751,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -765,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>62</v>
       </c>
@@ -779,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
@@ -793,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -807,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
@@ -821,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
@@ -835,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -849,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>65</v>
       </c>
@@ -863,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>69</v>
       </c>
@@ -877,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>51</v>
       </c>
@@ -891,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>66</v>
       </c>
@@ -905,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
@@ -919,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
@@ -933,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>67</v>
       </c>
@@ -947,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>71</v>
       </c>
@@ -961,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
@@ -976,35 +1022,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1091,30 +1137,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1174,34 +1220,34 @@
       <c r="I2" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1242,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1279,37 +1325,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1393,32 +1439,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1478,33 +1524,33 @@
       <c r="I2" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1582,36 +1628,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1655,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1695,31 +1741,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1779,33 +1825,33 @@
       <c r="I2" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1883,37 +1929,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +2003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2026,7 @@
         <v>77</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>48</v>
@@ -1997,33 +2043,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -2083,34 +2129,34 @@
       <c r="I2" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2188,36 +2234,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2301,31 +2347,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -2384,35 +2430,35 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="3" s="5" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2453,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2490,37 +2536,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2564,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2604,32 +2650,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -2689,34 +2735,34 @@
       <c r="I2" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2794,8 +2840,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="16" windowHeight="4455" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="90"/>
+    <workbookView activeTab="17" firstSheet="15" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="81">
   <si>
     <t>TC</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -288,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -391,7 +388,7 @@
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -726,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -771,7 +768,7 @@
     </row>
     <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -785,7 +782,7 @@
     </row>
     <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -799,7 +796,7 @@
     </row>
     <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -813,7 +810,7 @@
     </row>
     <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -827,10 +824,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -841,7 +838,7 @@
     </row>
     <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -855,7 +852,7 @@
     </row>
     <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -869,10 +866,10 @@
     </row>
     <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -883,7 +880,7 @@
     </row>
     <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -897,7 +894,7 @@
     </row>
     <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -911,10 +908,10 @@
     </row>
     <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -925,7 +922,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -939,7 +936,7 @@
     </row>
     <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -953,10 +950,10 @@
     </row>
     <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -967,7 +964,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -981,7 +978,7 @@
     </row>
     <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -995,10 +992,10 @@
     </row>
     <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -1028,11 +1025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1099,52 +1096,52 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1174,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1194,19 +1191,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>0.12</v>
@@ -1225,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,28 +1290,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
@@ -1325,18 +1322,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1404,34 +1401,34 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -1439,14 +1436,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1478,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1498,19 +1495,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>180004.92</v>
@@ -1529,11 +1526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,28 +1593,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
@@ -1628,18 +1625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1686,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1706,34 +1703,34 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -1741,14 +1738,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1779,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1799,19 +1796,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="F2" s="16">
         <v>360009.84</v>
@@ -1830,11 +1827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,28 +1894,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
@@ -1929,17 +1926,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +1988,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2008,34 +2005,34 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -2043,14 +2040,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2083,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2103,19 +2100,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>264000</v>
@@ -2135,11 +2132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,10 +2199,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -2214,13 +2211,13 @@
         <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>30</v>
@@ -2234,18 +2231,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2312,10 +2309,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -2324,22 +2321,22 @@
         <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -2347,14 +2344,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2385,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2405,19 +2402,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>276000.48</v>
@@ -2437,11 +2434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,28 +2501,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
@@ -2536,18 +2533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2595,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2615,34 +2612,34 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -2650,14 +2647,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2709,19 +2706,19 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>0.12</v>
@@ -2741,11 +2738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,28 +2805,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>31</v>
@@ -2840,7 +2837,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
@@ -1,43 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="17" firstSheet="15" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth1" r:id="rId2" sheetId="2"/>
-    <sheet name="PayrollForNIDirctrAsRandPApril" r:id="rId3" sheetId="3"/>
-    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth2" r:id="rId5" sheetId="28"/>
-    <sheet name="PayrollForNIDirctrAsRandPMay" r:id="rId6" sheetId="7"/>
-    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth3" r:id="rId8" sheetId="29"/>
-    <sheet name="PayrollForNIDirctrAsRandPJune" r:id="rId9" sheetId="9"/>
-    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth4" r:id="rId11" sheetId="30"/>
-    <sheet name="PayrollForNIDirctrAsRandPJuly" r:id="rId12" sheetId="10"/>
-    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth5" r:id="rId14" sheetId="31"/>
-    <sheet name="PayrollForNIDirctrAsRandPAug" r:id="rId15" sheetId="11"/>
-    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth6" r:id="rId17" sheetId="32"/>
-    <sheet name="PayrollForNIDirctrAsRandPSep" r:id="rId18" sheetId="12"/>
-    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth1" sheetId="2" r:id="rId2"/>
+    <sheet name="PayrollForNIDirctrAsRandPApril" sheetId="3" r:id="rId3"/>
+    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth2" sheetId="28" r:id="rId5"/>
+    <sheet name="PayrollForNIDirctrAsRandPMay" sheetId="7" r:id="rId6"/>
+    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth3" sheetId="29" r:id="rId8"/>
+    <sheet name="PayrollForNIDirctrAsRandPJune" sheetId="9" r:id="rId9"/>
+    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth4" sheetId="30" r:id="rId11"/>
+    <sheet name="PayrollForNIDirctrAsRandPJuly" sheetId="10" r:id="rId12"/>
+    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth5" sheetId="31" r:id="rId14"/>
+    <sheet name="PayrollForNIDirctrAsRandPAug" sheetId="11" r:id="rId15"/>
+    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth6" sheetId="32" r:id="rId17"/>
+    <sheet name="PayrollForNIDirctrAsRandPSep" sheetId="12" r:id="rId18"/>
+    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
   <si>
     <t>TC</t>
   </si>
@@ -123,9 +118,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
     <t>April-2017</t>
   </si>
   <si>
@@ -252,9 +244,6 @@
     <t>PayrollForNIDirctrAsRandPSep</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
     <t>DateOfBirth</t>
   </si>
   <si>
@@ -276,17 +265,22 @@
     <t>08/15/1952</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 603</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRRPA EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRRPA_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,52 +340,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,10 +402,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -446,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,26 +473,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,23 +508,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,7 +563,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -612,13 +572,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -628,7 +588,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -637,7 +597,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -646,7 +606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -656,12 +616,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -692,7 +652,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -711,7 +671,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -723,22 +683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +712,8 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -762,41 +722,41 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>35</v>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -808,26 +768,26 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>53</v>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -836,9 +796,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -846,30 +806,30 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -878,9 +838,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>38</v>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -888,30 +848,30 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -920,9 +880,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>50</v>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -930,30 +890,30 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -962,9 +922,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>51</v>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -972,30 +932,30 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>53</v>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1004,9 +964,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>52</v>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -1014,150 +974,150 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>56</v>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1189,279 +1149,279 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1475,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1493,276 +1453,276 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5">
         <v>180004.92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1794,279 +1754,279 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="E2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14">
         <v>360009.84</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="60.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2098,277 +2058,277 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5">
         <v>264000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2400,279 +2360,279 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5">
         <v>276000.48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row customFormat="1" r="3" s="5" spans="1:10" x14ac:dyDescent="0.25"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2704,141 +2664,141 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
@@ -4,35 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="12" activeTab="14"/>
+    <workbookView activeTab="14" firstSheet="12" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctrAsRandPApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctrAsRandPMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctrAsRandPJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctrAsRandPJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctrAsRandPAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_ReachsPensonAgeMnth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctrAsRandPSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctrAsRandPApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctrAsRandPMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctrAsRandPJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctrAsRandPJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctrAsRandPAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_ReachsPensonAgeMnth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctrAsRandPSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="81">
   <si>
     <t>TC</t>
   </si>
@@ -281,6 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,52 +341,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,10 +403,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -563,7 +564,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -572,13 +573,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -588,7 +589,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -597,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -606,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,12 +617,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -652,7 +653,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -671,7 +672,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -683,7 +684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -692,13 +693,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -726,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -740,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -754,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -768,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -782,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -796,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -810,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
@@ -824,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -838,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.95" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -852,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>63</v>
       </c>
@@ -866,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -880,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
@@ -894,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
@@ -908,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="16" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -922,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
@@ -936,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="18" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
@@ -950,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>69</v>
       </c>
@@ -964,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
@@ -979,13 +980,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -994,20 +995,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1094,14 +1095,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1110,14 +1111,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -1177,12 +1178,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,20 +1192,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1282,14 +1283,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1298,21 +1299,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1396,14 +1397,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1412,16 +1413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -1481,12 +1482,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,19 +1496,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1585,14 +1586,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1601,20 +1602,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1698,14 +1699,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1714,15 +1715,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -1782,12 +1783,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1796,19 +1797,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -1886,14 +1887,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1902,21 +1903,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2000,14 +2001,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2016,17 +2017,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -2086,13 +2087,13 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,19 +2102,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2191,14 +2192,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2207,20 +2208,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2304,14 +2305,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,15 +2321,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -2387,14 +2388,14 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="3" s="4" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,19 +2404,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2493,14 +2494,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,21 +2510,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2607,14 +2608,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,16 +2624,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -2692,13 +2693,13 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2707,19 +2708,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -2797,8 +2798,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director ReachesPensionAge201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="81">
   <si>
     <t>TC</t>
   </si>
